--- a/biology/Zoologie/Anagalida/Anagalida.xlsx
+++ b/biology/Zoologie/Anagalida/Anagalida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anagalides (Anagalida) forment un clade regroupant les glires (lagomorphes et rongeurs) et quelques familles éteintes. C'est le groupe frère des Euarchonta ou archontes vrais.
 En classification classique, Anagalida est un ordre éteint regroupant des mammifères du milieu du Paléocène au bas Oligocène.
-Les Macroscelidea autrefois rattachés[1] à cet ordre ne le sont plus[2].
+Les Macroscelidea autrefois rattachés à cet ordre ne le sont plus.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Cladogramme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">  └─o Euarchontoglires
     ├─o Anagalida
